--- a/data/ModernSequences.xlsx
+++ b/data/ModernSequences.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tco/Desktop/Projects/UniKram/R/SEAFRONT-ModernReferenceStudy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE89817-8474-AD4C-8917-AB19438FF997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D3EF40-5B91-CC4A-A60C-EC958C1D4FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23200" yWindow="880" windowWidth="14380" windowHeight="21520" xr2:uid="{176FEB6C-22AD-D84B-9BB5-E996BB19A784}"/>
   </bookViews>
@@ -255,16 +255,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-        <name val="Cambria"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -661,8 +652,8 @@
   <dimension ref="A1:L2627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2590" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2627" sqref="E2627"/>
+      <pane ySplit="1" topLeftCell="A2474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2418" sqref="E2418:E2489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42490,8 +42481,8 @@
       <c r="D2418" s="4">
         <v>1.0498327103899101</v>
       </c>
-      <c r="E2418" s="4">
-        <v>1.0498327103899101</v>
+      <c r="E2418">
+        <v>7.6370904850809801E-2</v>
       </c>
     </row>
     <row r="2419" spans="1:5" x14ac:dyDescent="0.2">
@@ -42507,8 +42498,8 @@
       <c r="D2419" s="4">
         <v>0.89324273062712201</v>
       </c>
-      <c r="E2419" s="4">
-        <v>0.89324273062712201</v>
+      <c r="E2419">
+        <v>5.6625274580672201E-2</v>
       </c>
     </row>
     <row r="2420" spans="1:5" x14ac:dyDescent="0.2">
@@ -42524,8 +42515,8 @@
       <c r="D2420" s="4">
         <v>0.74147100336564198</v>
       </c>
-      <c r="E2420" s="4">
-        <v>0.74147100336564198</v>
+      <c r="E2420">
+        <v>7.8645728857123898E-2</v>
       </c>
     </row>
     <row r="2421" spans="1:5" x14ac:dyDescent="0.2">
@@ -42541,8 +42532,8 @@
       <c r="D2421" s="4">
         <v>0.71308567452049099</v>
       </c>
-      <c r="E2421" s="4">
-        <v>0.71308567452049099</v>
+      <c r="E2421">
+        <v>4.6480109730652898E-2</v>
       </c>
     </row>
     <row r="2422" spans="1:5" x14ac:dyDescent="0.2">
@@ -42558,8 +42549,8 @@
       <c r="D2422" s="4">
         <v>0.68805626052523094</v>
       </c>
-      <c r="E2422" s="4">
-        <v>0.68805626052523094</v>
+      <c r="E2422">
+        <v>5.2965143625067802E-2</v>
       </c>
     </row>
     <row r="2423" spans="1:5" x14ac:dyDescent="0.2">
@@ -42575,8 +42566,8 @@
       <c r="D2423" s="4">
         <v>0.71113959163810603</v>
       </c>
-      <c r="E2423" s="4">
-        <v>0.71113959163810603</v>
+      <c r="E2423">
+        <v>4.3786533948359803E-2</v>
       </c>
     </row>
     <row r="2424" spans="1:5" x14ac:dyDescent="0.2">
@@ -42592,8 +42583,8 @@
       <c r="D2424" s="4">
         <v>0.75810146724546201</v>
       </c>
-      <c r="E2424" s="4">
-        <v>0.75810146724546201</v>
+      <c r="E2424">
+        <v>4.01033302843707E-2</v>
       </c>
     </row>
     <row r="2425" spans="1:5" x14ac:dyDescent="0.2">
@@ -42609,8 +42600,8 @@
       <c r="D2425" s="4">
         <v>0.67159683462118502</v>
       </c>
-      <c r="E2425" s="4">
-        <v>0.67159683462118502</v>
+      <c r="E2425">
+        <v>2.5872191322564499E-2</v>
       </c>
     </row>
     <row r="2426" spans="1:5" x14ac:dyDescent="0.2">
@@ -42626,8 +42617,8 @@
       <c r="D2426" s="4">
         <v>0.65879304330285504</v>
       </c>
-      <c r="E2426" s="4">
-        <v>0.65879304330285504</v>
+      <c r="E2426">
+        <v>5.63791554901222E-2</v>
       </c>
     </row>
     <row r="2427" spans="1:5" x14ac:dyDescent="0.2">
@@ -42643,8 +42634,8 @@
       <c r="D2427" s="4">
         <v>0.63969404221975801</v>
       </c>
-      <c r="E2427" s="4">
-        <v>0.63969404221975801</v>
+      <c r="E2427">
+        <v>2.1561552225999901E-2</v>
       </c>
     </row>
     <row r="2428" spans="1:5" x14ac:dyDescent="0.2">
@@ -42660,8 +42651,8 @@
       <c r="D2428" s="4">
         <v>0.66711202834272998</v>
       </c>
-      <c r="E2428" s="4">
-        <v>0.66711202834272998</v>
+      <c r="E2428">
+        <v>5.4541280940963902E-2</v>
       </c>
     </row>
     <row r="2429" spans="1:5" x14ac:dyDescent="0.2">
@@ -42677,8 +42668,8 @@
       <c r="D2429" s="4">
         <v>0.62876817601443002</v>
       </c>
-      <c r="E2429" s="4">
-        <v>0.62876817601443002</v>
+      <c r="E2429">
+        <v>4.7611600338812197E-2</v>
       </c>
     </row>
     <row r="2430" spans="1:5" x14ac:dyDescent="0.2">
@@ -42694,8 +42685,8 @@
       <c r="D2430" s="4">
         <v>0.62711229168280702</v>
       </c>
-      <c r="E2430" s="4">
-        <v>0.62711229168280702</v>
+      <c r="E2430">
+        <v>3.2725451552065798E-2</v>
       </c>
     </row>
     <row r="2431" spans="1:5" x14ac:dyDescent="0.2">
@@ -42711,8 +42702,8 @@
       <c r="D2431" s="4">
         <v>0.655508740631082</v>
       </c>
-      <c r="E2431" s="4">
-        <v>0.655508740631082</v>
+      <c r="E2431">
+        <v>5.4001517099992201E-2</v>
       </c>
     </row>
     <row r="2432" spans="1:5" x14ac:dyDescent="0.2">
@@ -42728,8 +42719,8 @@
       <c r="D2432" s="4">
         <v>0.75108963242123905</v>
       </c>
-      <c r="E2432" s="4">
-        <v>0.75108963242123905</v>
+      <c r="E2432">
+        <v>3.7488004941632701E-2</v>
       </c>
     </row>
     <row r="2433" spans="1:5" x14ac:dyDescent="0.2">
@@ -42745,8 +42736,8 @@
       <c r="D2433" s="4">
         <v>0.815491088223251</v>
       </c>
-      <c r="E2433" s="4">
-        <v>0.815491088223251</v>
+      <c r="E2433">
+        <v>5.8465630634424802E-2</v>
       </c>
     </row>
     <row r="2434" spans="1:5" x14ac:dyDescent="0.2">
@@ -42762,8 +42753,8 @@
       <c r="D2434" s="4">
         <v>0.872061943946149</v>
       </c>
-      <c r="E2434" s="4">
-        <v>0.872061943946149</v>
+      <c r="E2434">
+        <v>4.0576239791669001E-2</v>
       </c>
     </row>
     <row r="2435" spans="1:5" x14ac:dyDescent="0.2">
@@ -42779,8 +42770,8 @@
       <c r="D2435" s="4">
         <v>0.85736123535324904</v>
       </c>
-      <c r="E2435" s="4">
-        <v>0.85736123535324904</v>
+      <c r="E2435">
+        <v>8.7051695747943095E-2</v>
       </c>
     </row>
     <row r="2436" spans="1:5" x14ac:dyDescent="0.2">
@@ -42796,8 +42787,8 @@
       <c r="D2436" s="4">
         <v>0.90350943611503798</v>
       </c>
-      <c r="E2436" s="4">
-        <v>0.90350943611503798</v>
+      <c r="E2436">
+        <v>6.2619227864568999E-2</v>
       </c>
     </row>
     <row r="2437" spans="1:5" x14ac:dyDescent="0.2">
@@ -42813,8 +42804,8 @@
       <c r="D2437" s="4">
         <v>0.95161646460775695</v>
       </c>
-      <c r="E2437" s="4">
-        <v>0.95161646460775695</v>
+      <c r="E2437">
+        <v>9.5980893914923399E-2</v>
       </c>
     </row>
     <row r="2438" spans="1:5" x14ac:dyDescent="0.2">
@@ -42830,8 +42821,8 @@
       <c r="D2438" s="4">
         <v>0.80137847939918705</v>
       </c>
-      <c r="E2438" s="4">
-        <v>0.80137847939918705</v>
+      <c r="E2438">
+        <v>3.71492847333229E-2</v>
       </c>
     </row>
     <row r="2439" spans="1:5" x14ac:dyDescent="0.2">
@@ -42847,8 +42838,8 @@
       <c r="D2439" s="4">
         <v>0.85747690006368704</v>
       </c>
-      <c r="E2439" s="4">
-        <v>0.85747690006368704</v>
+      <c r="E2439">
+        <v>4.5013074824706199E-2</v>
       </c>
     </row>
     <row r="2440" spans="1:5" x14ac:dyDescent="0.2">
@@ -42864,8 +42855,8 @@
       <c r="D2440" s="4">
         <v>0.94980527108734802</v>
       </c>
-      <c r="E2440" s="4">
-        <v>0.94980527108734802</v>
+      <c r="E2440">
+        <v>6.9946346137296694E-2</v>
       </c>
     </row>
     <row r="2441" spans="1:5" x14ac:dyDescent="0.2">
@@ -42881,8 +42872,8 @@
       <c r="D2441" s="4">
         <v>0.92567555733333196</v>
       </c>
-      <c r="E2441" s="4">
-        <v>0.92567555733333196</v>
+      <c r="E2441">
+        <v>6.7700541582145002E-2</v>
       </c>
     </row>
     <row r="2442" spans="1:5" x14ac:dyDescent="0.2">
@@ -42898,8 +42889,8 @@
       <c r="D2442" s="4">
         <v>0.93235536367039196</v>
       </c>
-      <c r="E2442" s="4">
-        <v>0.93235536367039196</v>
+      <c r="E2442">
+        <v>6.3449817909279893E-2</v>
       </c>
     </row>
     <row r="2443" spans="1:5" x14ac:dyDescent="0.2">
@@ -42915,8 +42906,8 @@
       <c r="D2443" s="4">
         <v>1.0205070021821201</v>
       </c>
-      <c r="E2443" s="4">
-        <v>1.0205070021821201</v>
+      <c r="E2443">
+        <v>6.5413330026290101E-2</v>
       </c>
     </row>
     <row r="2444" spans="1:5" x14ac:dyDescent="0.2">
@@ -42932,8 +42923,8 @@
       <c r="D2444" s="4">
         <v>0.95997736729807603</v>
       </c>
-      <c r="E2444" s="4">
-        <v>0.95997736729807603</v>
+      <c r="E2444">
+        <v>5.3104167105271299E-2</v>
       </c>
     </row>
     <row r="2445" spans="1:5" x14ac:dyDescent="0.2">
@@ -42949,8 +42940,8 @@
       <c r="D2445" s="4">
         <v>0.99272115430282004</v>
       </c>
-      <c r="E2445" s="4">
-        <v>0.99272115430282004</v>
+      <c r="E2445">
+        <v>7.8980734677061806E-2</v>
       </c>
     </row>
     <row r="2446" spans="1:5" x14ac:dyDescent="0.2">
@@ -42966,8 +42957,8 @@
       <c r="D2446" s="4">
         <v>0.901567060734494</v>
       </c>
-      <c r="E2446" s="4">
-        <v>0.901567060734494</v>
+      <c r="E2446">
+        <v>7.2502278892627503E-2</v>
       </c>
     </row>
     <row r="2447" spans="1:5" x14ac:dyDescent="0.2">
@@ -42983,8 +42974,8 @@
       <c r="D2447" s="4">
         <v>0.81723426118185505</v>
       </c>
-      <c r="E2447" s="4">
-        <v>0.81723426118185505</v>
+      <c r="E2447">
+        <v>3.6265665629556298E-2</v>
       </c>
     </row>
     <row r="2448" spans="1:5" x14ac:dyDescent="0.2">
@@ -43000,8 +42991,8 @@
       <c r="D2448" s="4">
         <v>0.83943549350116997</v>
       </c>
-      <c r="E2448" s="4">
-        <v>0.83943549350116997</v>
+      <c r="E2448">
+        <v>4.3420043828874301E-2</v>
       </c>
     </row>
     <row r="2449" spans="1:5" x14ac:dyDescent="0.2">
@@ -43017,8 +43008,8 @@
       <c r="D2449" s="4">
         <v>0.83435445131321195</v>
       </c>
-      <c r="E2449" s="4">
-        <v>0.83435445131321195</v>
+      <c r="E2449">
+        <v>3.7825167313794497E-2</v>
       </c>
     </row>
     <row r="2450" spans="1:5" x14ac:dyDescent="0.2">
@@ -43034,8 +43025,8 @@
       <c r="D2450" s="4">
         <v>0.92364449864847198</v>
       </c>
-      <c r="E2450" s="4">
-        <v>0.92364449864847198</v>
+      <c r="E2450">
+        <v>6.0766056542660103E-2</v>
       </c>
     </row>
     <row r="2451" spans="1:5" x14ac:dyDescent="0.2">
@@ -43051,8 +43042,8 @@
       <c r="D2451" s="4">
         <v>0.80413914016063304</v>
       </c>
-      <c r="E2451" s="4">
-        <v>0.80413914016063304</v>
+      <c r="E2451">
+        <v>5.3800570863631998E-2</v>
       </c>
     </row>
     <row r="2452" spans="1:5" x14ac:dyDescent="0.2">
@@ -43068,8 +43059,8 @@
       <c r="D2452" s="4">
         <v>0.756611208415367</v>
       </c>
-      <c r="E2452" s="4">
-        <v>0.756611208415367</v>
+      <c r="E2452">
+        <v>4.63191656593867E-2</v>
       </c>
     </row>
     <row r="2453" spans="1:5" x14ac:dyDescent="0.2">
@@ -43085,8 +43076,8 @@
       <c r="D2453" s="4">
         <v>0.77028127833259297</v>
       </c>
-      <c r="E2453" s="4">
-        <v>0.77028127833259297</v>
+      <c r="E2453">
+        <v>5.1279253567662497E-2</v>
       </c>
     </row>
     <row r="2454" spans="1:5" x14ac:dyDescent="0.2">
@@ -43102,8 +43093,8 @@
       <c r="D2454" s="4">
         <v>0.83530666527956099</v>
       </c>
-      <c r="E2454" s="4">
-        <v>0.83530666527956099</v>
+      <c r="E2454">
+        <v>4.6113340056342003E-2</v>
       </c>
     </row>
     <row r="2455" spans="1:5" x14ac:dyDescent="0.2">
@@ -43119,8 +43110,8 @@
       <c r="D2455" s="4">
         <v>0.82857860309290798</v>
       </c>
-      <c r="E2455" s="4">
-        <v>0.82857860309290798</v>
+      <c r="E2455">
+        <v>3.3339808739030898E-2</v>
       </c>
     </row>
     <row r="2456" spans="1:5" x14ac:dyDescent="0.2">
@@ -43136,8 +43127,8 @@
       <c r="D2456" s="4">
         <v>0.73231867434847397</v>
       </c>
-      <c r="E2456" s="4">
-        <v>0.73231867434847397</v>
+      <c r="E2456">
+        <v>5.8473654434755197E-2</v>
       </c>
     </row>
     <row r="2457" spans="1:5" x14ac:dyDescent="0.2">
@@ -43153,8 +43144,8 @@
       <c r="D2457" s="4">
         <v>0.71016274905013699</v>
       </c>
-      <c r="E2457" s="4">
-        <v>0.71016274905013699</v>
+      <c r="E2457">
+        <v>4.00014155392108E-2</v>
       </c>
     </row>
     <row r="2458" spans="1:5" x14ac:dyDescent="0.2">
@@ -43170,8 +43161,8 @@
       <c r="D2458" s="4">
         <v>0.64064586879437502</v>
       </c>
-      <c r="E2458" s="4">
-        <v>0.64064586879437502</v>
+      <c r="E2458">
+        <v>3.0410211174982601E-2</v>
       </c>
     </row>
     <row r="2459" spans="1:5" x14ac:dyDescent="0.2">
@@ -43187,8 +43178,8 @@
       <c r="D2459" s="4">
         <v>0.67219827127012999</v>
       </c>
-      <c r="E2459" s="4">
-        <v>0.67219827127012999</v>
+      <c r="E2459">
+        <v>6.5945109217409995E-2</v>
       </c>
     </row>
     <row r="2460" spans="1:5" x14ac:dyDescent="0.2">
@@ -43204,8 +43195,8 @@
       <c r="D2460" s="4">
         <v>0.680253118537959</v>
       </c>
-      <c r="E2460" s="4">
-        <v>0.680253118537959</v>
+      <c r="E2460">
+        <v>5.97704253145388E-2</v>
       </c>
     </row>
     <row r="2461" spans="1:5" x14ac:dyDescent="0.2">
@@ -43221,8 +43212,8 @@
       <c r="D2461" s="4">
         <v>0.61501177193481005</v>
       </c>
-      <c r="E2461" s="4">
-        <v>0.61501177193481005</v>
+      <c r="E2461">
+        <v>2.1203513653625598E-2</v>
       </c>
     </row>
     <row r="2462" spans="1:5" x14ac:dyDescent="0.2">
@@ -43238,8 +43229,8 @@
       <c r="D2462" s="4">
         <v>0.62247025339629802</v>
       </c>
-      <c r="E2462" s="4">
-        <v>0.62247025339629802</v>
+      <c r="E2462">
+        <v>1.9770950196341699E-2</v>
       </c>
     </row>
     <row r="2463" spans="1:5" x14ac:dyDescent="0.2">
@@ -43255,8 +43246,8 @@
       <c r="D2463" s="4">
         <v>0.61798553947886603</v>
       </c>
-      <c r="E2463" s="4">
-        <v>0.61798553947886603</v>
+      <c r="E2463">
+        <v>3.5133557215164701E-2</v>
       </c>
     </row>
     <row r="2464" spans="1:5" x14ac:dyDescent="0.2">
@@ -43272,8 +43263,8 @@
       <c r="D2464" s="4">
         <v>0.58684729693476501</v>
       </c>
-      <c r="E2464" s="4">
-        <v>0.58684729693476501</v>
+      <c r="E2464">
+        <v>3.8730398994252298E-2</v>
       </c>
     </row>
     <row r="2465" spans="1:5" x14ac:dyDescent="0.2">
@@ -43289,8 +43280,8 @@
       <c r="D2465" s="4">
         <v>0.57698564644941996</v>
       </c>
-      <c r="E2465" s="4">
-        <v>0.57698564644941996</v>
+      <c r="E2465">
+        <v>4.5996210565212699E-2</v>
       </c>
     </row>
     <row r="2466" spans="1:5" x14ac:dyDescent="0.2">
@@ -43306,8 +43297,8 @@
       <c r="D2466" s="4">
         <v>0.56570447483631503</v>
       </c>
-      <c r="E2466" s="4">
-        <v>0.56570447483631503</v>
+      <c r="E2466">
+        <v>3.9067433214550702E-2</v>
       </c>
     </row>
     <row r="2467" spans="1:5" x14ac:dyDescent="0.2">
@@ -43323,8 +43314,8 @@
       <c r="D2467" s="4">
         <v>0.61852675855758099</v>
       </c>
-      <c r="E2467" s="4">
-        <v>0.61852675855758099</v>
+      <c r="E2467">
+        <v>4.14772524651408E-2</v>
       </c>
     </row>
     <row r="2468" spans="1:5" x14ac:dyDescent="0.2">
@@ -43340,8 +43331,8 @@
       <c r="D2468" s="4">
         <v>0.66472026948611995</v>
       </c>
-      <c r="E2468" s="4">
-        <v>0.66472026948611995</v>
+      <c r="E2468">
+        <v>2.60862153449095E-2</v>
       </c>
     </row>
     <row r="2469" spans="1:5" x14ac:dyDescent="0.2">
@@ -43357,8 +43348,8 @@
       <c r="D2469" s="4">
         <v>0.66573856707910495</v>
       </c>
-      <c r="E2469" s="4">
-        <v>0.66573856707910495</v>
+      <c r="E2469">
+        <v>4.9211313500532601E-2</v>
       </c>
     </row>
     <row r="2470" spans="1:5" x14ac:dyDescent="0.2">
@@ -43374,8 +43365,8 @@
       <c r="D2470" s="4">
         <v>0.64560428850245499</v>
       </c>
-      <c r="E2470" s="4">
-        <v>0.64560428850245499</v>
+      <c r="E2470">
+        <v>3.2425437527293502E-2</v>
       </c>
     </row>
     <row r="2471" spans="1:5" x14ac:dyDescent="0.2">
@@ -43391,8 +43382,8 @@
       <c r="D2471" s="4">
         <v>0.63475200858460401</v>
       </c>
-      <c r="E2471" s="4">
-        <v>0.63475200858460401</v>
+      <c r="E2471">
+        <v>3.1085326163042399E-2</v>
       </c>
     </row>
     <row r="2472" spans="1:5" x14ac:dyDescent="0.2">
@@ -43408,8 +43399,8 @@
       <c r="D2472" s="4">
         <v>0.67427311079544705</v>
       </c>
-      <c r="E2472" s="4">
-        <v>0.67427311079544705</v>
+      <c r="E2472">
+        <v>3.8296453509635502E-2</v>
       </c>
     </row>
     <row r="2473" spans="1:5" x14ac:dyDescent="0.2">
@@ -43425,8 +43416,8 @@
       <c r="D2473" s="4">
         <v>0.67997984640783604</v>
       </c>
-      <c r="E2473" s="4">
-        <v>0.67997984640783604</v>
+      <c r="E2473">
+        <v>3.49861803069558E-2</v>
       </c>
     </row>
     <row r="2474" spans="1:5" x14ac:dyDescent="0.2">
@@ -43442,8 +43433,8 @@
       <c r="D2474" s="4">
         <v>0.647984056190965</v>
       </c>
-      <c r="E2474" s="4">
-        <v>0.647984056190965</v>
+      <c r="E2474">
+        <v>4.6966372721349001E-2</v>
       </c>
     </row>
     <row r="2475" spans="1:5" x14ac:dyDescent="0.2">
@@ -43459,8 +43450,8 @@
       <c r="D2475" s="4">
         <v>0.67389871710645799</v>
       </c>
-      <c r="E2475" s="4">
-        <v>0.67389871710645799</v>
+      <c r="E2475">
+        <v>4.5329531020612601E-2</v>
       </c>
     </row>
     <row r="2476" spans="1:5" x14ac:dyDescent="0.2">
@@ -43476,8 +43467,8 @@
       <c r="D2476" s="4">
         <v>0.60187498466160705</v>
       </c>
-      <c r="E2476" s="4">
-        <v>0.60187498466160705</v>
+      <c r="E2476">
+        <v>3.4418338988914103E-2</v>
       </c>
     </row>
     <row r="2477" spans="1:5" x14ac:dyDescent="0.2">
@@ -43493,8 +43484,8 @@
       <c r="D2477" s="4">
         <v>0.65364579557103897</v>
       </c>
-      <c r="E2477" s="4">
-        <v>0.65364579557103897</v>
+      <c r="E2477">
+        <v>3.2632527933092403E-2</v>
       </c>
     </row>
     <row r="2478" spans="1:5" x14ac:dyDescent="0.2">
@@ -43510,8 +43501,8 @@
       <c r="D2478" s="4">
         <v>0.638183992778384</v>
       </c>
-      <c r="E2478" s="4">
-        <v>0.638183992778384</v>
+      <c r="E2478">
+        <v>3.7679298934093101E-2</v>
       </c>
     </row>
     <row r="2479" spans="1:5" x14ac:dyDescent="0.2">
@@ -43527,8 +43518,8 @@
       <c r="D2479" s="4">
         <v>0.58735580927248698</v>
       </c>
-      <c r="E2479" s="4">
-        <v>0.58735580927248698</v>
+      <c r="E2479">
+        <v>6.6519927970186701E-2</v>
       </c>
     </row>
     <row r="2480" spans="1:5" x14ac:dyDescent="0.2">
@@ -43544,8 +43535,8 @@
       <c r="D2480" s="4">
         <v>0.56822157151708497</v>
       </c>
-      <c r="E2480" s="4">
-        <v>0.56822157151708497</v>
+      <c r="E2480">
+        <v>3.2201923142570199E-2</v>
       </c>
     </row>
     <row r="2481" spans="1:5" x14ac:dyDescent="0.2">
@@ -43561,8 +43552,8 @@
       <c r="D2481" s="4">
         <v>0.62987771670357195</v>
       </c>
-      <c r="E2481" s="4">
-        <v>0.62987771670357195</v>
+      <c r="E2481">
+        <v>3.3871459797819199E-2</v>
       </c>
     </row>
     <row r="2482" spans="1:5" x14ac:dyDescent="0.2">
@@ -43578,8 +43569,8 @@
       <c r="D2482" s="4">
         <v>0.62662651670628799</v>
       </c>
-      <c r="E2482" s="4">
-        <v>0.62662651670628799</v>
+      <c r="E2482">
+        <v>3.5041723553352597E-2</v>
       </c>
     </row>
     <row r="2483" spans="1:5" x14ac:dyDescent="0.2">
@@ -43595,8 +43586,8 @@
       <c r="D2483" s="4">
         <v>0.64988890676269795</v>
       </c>
-      <c r="E2483" s="4">
-        <v>0.64988890676269795</v>
+      <c r="E2483">
+        <v>2.22959288647256E-2</v>
       </c>
     </row>
     <row r="2484" spans="1:5" x14ac:dyDescent="0.2">
@@ -43612,8 +43603,8 @@
       <c r="D2484" s="4">
         <v>0.71255414677228401</v>
       </c>
-      <c r="E2484" s="4">
-        <v>0.71255414677228401</v>
+      <c r="E2484">
+        <v>4.7708829257064003E-2</v>
       </c>
     </row>
     <row r="2485" spans="1:5" x14ac:dyDescent="0.2">
@@ -43629,8 +43620,8 @@
       <c r="D2485" s="4">
         <v>0.716175449067051</v>
       </c>
-      <c r="E2485" s="4">
-        <v>0.716175449067051</v>
+      <c r="E2485">
+        <v>3.7943410672396302E-2</v>
       </c>
     </row>
     <row r="2486" spans="1:5" x14ac:dyDescent="0.2">
@@ -43646,8 +43637,8 @@
       <c r="D2486" s="4">
         <v>0.76522077817353595</v>
       </c>
-      <c r="E2486" s="4">
-        <v>0.76522077817353595</v>
+      <c r="E2486">
+        <v>4.1543375245194497E-2</v>
       </c>
     </row>
     <row r="2487" spans="1:5" x14ac:dyDescent="0.2">
@@ -43663,8 +43654,8 @@
       <c r="D2487" s="4">
         <v>0.85864780884579395</v>
       </c>
-      <c r="E2487" s="4">
-        <v>0.85864780884579395</v>
+      <c r="E2487">
+        <v>4.9955729683850703E-2</v>
       </c>
     </row>
     <row r="2488" spans="1:5" x14ac:dyDescent="0.2">
@@ -43680,8 +43671,8 @@
       <c r="D2488" s="4">
         <v>0.89579018179915904</v>
       </c>
-      <c r="E2488" s="4">
-        <v>0.89579018179915904</v>
+      <c r="E2488">
+        <v>4.7403892219131299E-2</v>
       </c>
     </row>
     <row r="2489" spans="1:5" x14ac:dyDescent="0.2">
@@ -43697,8 +43688,8 @@
       <c r="D2489" s="4">
         <v>0.96001441572978796</v>
       </c>
-      <c r="E2489" s="4">
-        <v>0.96001441572978796</v>
+      <c r="E2489">
+        <v>4.3270836969224999E-2</v>
       </c>
     </row>
     <row r="2490" spans="1:5" x14ac:dyDescent="0.2">
@@ -46049,37 +46040,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160:E187">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E423:E447">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1021:E1044">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1226:E1249">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2020:E2024">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2503:E2504">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E423:E447">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1021:E1044">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1226:E1249">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
